--- a/List of Actions .xlsx
+++ b/List of Actions .xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="16185" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t xml:space="preserve">Action </t>
   </si>
@@ -163,21 +168,6 @@
     <t>Safeguard your possessions, valuables into safe deposit box or waterproof container</t>
   </si>
   <si>
-    <t>Safeguard your possessions, valuables, move furniture to top floors</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect 3 day drinking water and food </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boil water for drinking and food preparation </t>
-  </si>
-  <si>
     <t>Very Low risk</t>
   </si>
   <si>
@@ -190,9 +180,6 @@
     <t>High risk</t>
   </si>
   <si>
-    <t>Wear gloves and boots</t>
-  </si>
-  <si>
     <t>Prepare first aid kit, blankets, flashlight, portable radio, extra batteries</t>
   </si>
   <si>
@@ -202,14 +189,68 @@
     <t xml:space="preserve">Stack sand bags </t>
   </si>
   <si>
-    <t>Contact emergency units</t>
+    <t xml:space="preserve">Children </t>
+  </si>
+  <si>
+    <t>Diasbility</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Fussy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect drinking water and food </t>
+  </si>
+  <si>
+    <t>Obtain updates regularly</t>
+  </si>
+  <si>
+    <t>Have reasonable money available</t>
+  </si>
+  <si>
+    <t>Safeguard your possessions, valuables into waterproof container, household inventory,record all the valuables, move furniture to top floors</t>
+  </si>
+  <si>
+    <t>Safeguard your possessions, move valuables  to top floors</t>
+  </si>
+  <si>
+    <t>Safeguard your possessions, move valuables to top floors</t>
+  </si>
+  <si>
+    <t>Move your car</t>
+  </si>
+  <si>
+    <t>Turn off all utilities gas and electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact emergency units if required </t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Safeguard possesions</t>
+  </si>
+  <si>
+    <t>Descriotion</t>
+  </si>
+  <si>
+    <t>Old person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,15 +282,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,25 +292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -409,8 +425,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,15 +473,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -481,6 +527,24 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -532,10 +596,36 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -863,18 +953,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -889,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -898,98 +988,98 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -997,62 +1087,62 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45">
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30">
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1060,52 +1150,52 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30">
+    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
@@ -1123,349 +1213,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="69.875" customWidth="1"/>
+    <col min="4" max="5" width="62.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="8"/>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="8"/>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="8"/>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="8"/>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="8"/>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="7"/>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="7"/>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="7"/>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="7"/>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="7"/>
-      <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="9"/>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="9"/>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="9"/>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="9"/>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="10"/>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="B25" s="10"/>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="4"/>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
